--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-883673.1736923323</v>
+        <v>-886221.830878353</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>20.47516904773121</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>32.23168924578622</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.42290135054944</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -865,19 +865,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>63.51844028320035</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>266.0286480233243</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>113.9797665655254</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>96.31212873129799</v>
+        <v>269.261217636461</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>26.89854620008872</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>268.4147337607197</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>27.65913193862762</v>
+        <v>96.59271395322314</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>247.2924896597632</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>29.67382008037441</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444155</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986208</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>209.5844008505362</v>
+        <v>72.26558381699965</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.7518808581205</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>55.5207962406042</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.92847288552881</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>107.4021082756239</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8253826161915776</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852962</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>73.78331078915295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869785</v>
+        <v>164.2607468869784</v>
       </c>
       <c r="C34" t="n">
-        <v>151.675587803669</v>
+        <v>151.6755878036689</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232536</v>
+        <v>55.15928926146218</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516104</v>
+        <v>130.8627293516102</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279724</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.95290499731</v>
+        <v>149.9529049973099</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512651</v>
+        <v>124.7234795512649</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.69460302360659</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516289</v>
+        <v>50.80401341516274</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066858</v>
+        <v>165.4550527066856</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323295</v>
+        <v>201.8342170323293</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942853</v>
+        <v>270.6132410942852</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288692</v>
+        <v>236.5664100288691</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416322</v>
+        <v>270.951765041632</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940784</v>
+        <v>210.1384220940782</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.97325789097587</v>
+        <v>203.0134200571358</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808113</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652492</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1569.10175931188</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.840931351813</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1955.701599376001</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7936412903427</v>
+        <v>848.0708164780104</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>679.1346335501036</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.621931827995</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764915</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
         <v>976.3387758760402</v>
@@ -4504,34 +4504,34 @@
         <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621298</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621298</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641125</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.4421061205824</v>
+        <v>848.0708164780104</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.660964416652</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C5" t="n">
-        <v>1049.69844747624</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1049.69844747624</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1049.69844747624</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>638.7125426866328</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>223.6400925316293</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.6720730524786</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.454203094026</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>899.4646521960087</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.6720730524786</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>806.3384156653781</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>806.3384156653781</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>806.3384156653781</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.14852447922</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2033.68276621814</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1643.543434242328</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>708.3064969624544</v>
+        <v>924.1535645674204</v>
       </c>
       <c r="C10" t="n">
-        <v>539.3703140345475</v>
+        <v>755.2173816395135</v>
       </c>
       <c r="D10" t="n">
-        <v>389.2536746222117</v>
+        <v>605.1007422271778</v>
       </c>
       <c r="E10" t="n">
-        <v>241.3405810398186</v>
+        <v>457.1876486447846</v>
       </c>
       <c r="F10" t="n">
-        <v>94.45063354190827</v>
+        <v>310.2977011468743</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.3064969624544</v>
+        <v>1105.80202939766</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,7 +5200,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362704</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263519</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429801</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2052.406834234624</v>
+        <v>2191.112710026074</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234624</v>
+        <v>2191.112710026074</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028737</v>
+        <v>1936.428221820187</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991776</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093759</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093759</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,37 +5492,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5543,19 +5543,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048577</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>444.701316492522</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101289</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122185</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122185</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797746</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876692</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597623</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474265</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474265</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9565346495161</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179089</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,7 +6060,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273905</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,58 +6121,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536384</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257315</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133958</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310027</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
         <v>2338.476105524075</v>
@@ -6184,7 +6184,7 @@
         <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625426</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
         <v>1277.309669727408</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597626</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474269</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380888</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>572.9069687101819</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683285</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2093460329017</v>
+        <v>778.7344347539545</v>
       </c>
       <c r="C34" t="n">
-        <v>769.0016815847512</v>
+        <v>625.526770305804</v>
       </c>
       <c r="D34" t="n">
-        <v>634.6135606521718</v>
+        <v>569.8103165063472</v>
       </c>
       <c r="E34" t="n">
-        <v>502.4289855495351</v>
+        <v>437.6257414037107</v>
       </c>
       <c r="F34" t="n">
-        <v>371.2675565313811</v>
+        <v>437.6257414037107</v>
       </c>
       <c r="G34" t="n">
-        <v>219.7999757260174</v>
+        <v>286.1581605983471</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>160.1748479203018</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>189.4682024403049</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278526</v>
+        <v>466.5729859278529</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658021</v>
+        <v>872.3871010658022</v>
       </c>
       <c r="M34" t="n">
         <v>1309.812324758846</v>
@@ -6877,31 +6877,31 @@
         <v>2435.673495587426</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276334</v>
+        <v>2570.287251276335</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008493</v>
+        <v>2518.970066008494</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143154</v>
+        <v>2351.843750143155</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645851</v>
+        <v>2147.970803645852</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469805</v>
+        <v>1874.624095469807</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743675</v>
+        <v>1635.668125743676</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186471</v>
+        <v>1361.979474186472</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.71844176821</v>
+        <v>1149.718441768211</v>
       </c>
       <c r="Y34" t="n">
-        <v>1088.129292383385</v>
+        <v>944.6543811044377</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,16 +7257,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384011</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>344.7977227232764</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>354.0062494102673</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>151.8239197480784</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>223.0045580533907</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>38.89198472948095</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>196.0358353086627</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.821049476752038</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648069</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660561966</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>144.59566540674</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>73.62417772602069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6085800303776</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>61.40075786968274</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.88495046179122</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.8498147279723</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360673</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0401621661601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>8.455458555545192e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1214661.791232322</v>
+        <v>1214661.791232323</v>
       </c>
     </row>
     <row r="13">
@@ -26317,7 +26317,7 @@
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26332,10 +26332,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26344,13 +26344,13 @@
         <v>224415.4372624254</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596704</v>
+        <v>12456.98663596716</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.7592931766</v>
+        <v>92025.75929317641</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,22 +26418,22 @@
         <v>11600.2349971284</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="G4" t="n">
         <v>11776.97621680584</v>
       </c>
-      <c r="G4" t="n">
-        <v>11776.97621680578</v>
-      </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,22 +26442,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="L4" t="n">
-        <v>16900.68797146883</v>
+        <v>16900.68797146885</v>
       </c>
       <c r="M4" t="n">
+        <v>19767.83547989927</v>
+      </c>
+      <c r="N4" t="n">
         <v>19767.83547989929</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>19767.83547989927</v>
       </c>
-      <c r="O4" t="n">
-        <v>19767.83547989928</v>
-      </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1260730.516852108</v>
+        <v>-1261078.135781914</v>
       </c>
       <c r="C6" t="n">
-        <v>26888.53516312753</v>
+        <v>26888.53516312756</v>
       </c>
       <c r="D6" t="n">
-        <v>26888.5351631275</v>
+        <v>26888.53516312756</v>
       </c>
       <c r="E6" t="n">
-        <v>-216346.6529333166</v>
+        <v>-216381.3908587523</v>
       </c>
       <c r="F6" t="n">
-        <v>109065.8088740387</v>
+        <v>109031.0709486033</v>
       </c>
       <c r="G6" t="n">
-        <v>109065.8088740387</v>
+        <v>109031.0709486028</v>
       </c>
       <c r="H6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="I6" t="n">
-        <v>109065.8088740387</v>
+        <v>109031.0709486033</v>
       </c>
       <c r="J6" t="n">
-        <v>-108465.3935232388</v>
+        <v>-108500.1314486743</v>
       </c>
       <c r="K6" t="n">
-        <v>109065.8088740388</v>
+        <v>109031.0709486031</v>
       </c>
       <c r="L6" t="n">
-        <v>92626.17481920852</v>
+        <v>92613.71073329703</v>
       </c>
       <c r="M6" t="n">
-        <v>10828.77608568678</v>
+        <v>10828.77608568712</v>
       </c>
       <c r="N6" t="n">
+        <v>102854.5353788634</v>
+      </c>
+      <c r="O6" t="n">
         <v>102854.5353788635</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>102854.5353788633</v>
-      </c>
-      <c r="P6" t="n">
-        <v>102854.5353788634</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080914</v>
+        <v>8.713414197080741</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>99.2442437476833</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>180.627997821795</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>190.210869605293</v>
+        <v>17.26178070012998</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>379.9774995416227</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>80.82623495669333</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>138.3666763204006</v>
+        <v>69.43309430580508</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.744524524838198e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.032614490753985e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.822719918389339e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="G34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="H34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="I34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="J34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="K34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="L34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="M34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="N34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="O34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="P34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="R34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="S34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="T34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="U34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="V34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="W34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5712332949588</v>
+        <v>15.57123329495895</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>423.9151577118737</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>316.6133175811567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182644</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>382.1329742631541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>638.9422653403558</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,19 +33977,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>285.3607779319996</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>174.4792836591383</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383903</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>496.3460208959114</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791216</v>
+        <v>96.6177165579123</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045937</v>
+        <v>279.9038217045939</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140902</v>
+        <v>409.9132476140904</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960039</v>
+        <v>441.8436602960041</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848662</v>
+        <v>437.1973662848664</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010042</v>
+        <v>388.8331330010044</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015838</v>
+        <v>311.2030066015839</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948571</v>
+        <v>135.9734905948573</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
